--- a/TestDataSheet/EasyAppLoginCredentials.xlsx
+++ b/TestDataSheet/EasyAppLoginCredentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Swarup_Java_practice\EasyAppAutomation\TestDataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7970D0F9-D91D-42B2-85EE-A8972859FAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA54D02-FDF3-4A11-A853-1A99E2AAEED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="21">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>Singer</t>
+  </si>
+  <si>
+    <t>bob.sagerar@outlook.com</t>
+  </si>
+  <si>
+    <t>Subupassword@123</t>
+  </si>
+  <si>
+    <t>chetan.patil2016@outlook.com</t>
+  </si>
+  <si>
+    <t>GWElcome123#</t>
   </si>
 </sst>
 </file>
@@ -458,17 +470,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755FF4AF-10FE-4467-A3B1-EA0B0D38EE5B}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -497,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
@@ -514,10 +526,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
@@ -531,7 +543,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -548,24 +560,1070 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{7812C3A0-F3F0-4FC6-ACFF-B8927B11442F}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{EAE26232-2055-4912-AAC9-612B86F5F8FD}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{1DA62FFD-E105-457C-933E-C032021B7574}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{C8AF9A39-C872-45A8-B677-4227E575A3D2}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{174ADE58-1125-41FA-BFBB-F98762298815}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{D9CA5D88-A807-4384-8772-52CF8283A016}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{4096F918-9139-4112-9566-C496DE22D3E3}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8CCEFF35-EDDB-428B-9C16-1BCA944828E4}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{20C18784-A657-44CD-BD60-A632D4D8D446}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{329FA466-B6AA-4C6E-AB98-C2A2375CC92D}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{045F31A8-8CC2-4111-A270-4987EB8E5666}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{62692CCA-0AEF-45DE-B5B2-34EE9B6AC4C8}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{CF9278C1-55E8-4DB9-AAC0-B2F0CEC6F2EB}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{F29B9117-00E0-4E8F-BC88-DF87900BEA65}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{B731B0DC-253F-44A0-A2A7-8D330EBAFC69}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{AB95B095-FF83-4A04-9E6F-EB00166BDDAF}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{3EB4E6A0-66B6-4656-A152-20E0A4D52E0A}"/>
+    <hyperlink ref="D8" r:id="rId11" xr:uid="{C50ACA3C-23F3-4BF8-832F-C7B8D80A73EE}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{8D6985E3-8520-4700-966D-4A66CA630F40}"/>
+    <hyperlink ref="C10" r:id="rId13" xr:uid="{009BE43C-BBE5-4A06-A3CD-DB154A86C5BD}"/>
+    <hyperlink ref="D10" r:id="rId14" xr:uid="{28BA843E-C89D-4D94-A108-E9213A0E2177}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{20B2C933-5B06-40FF-8A2D-256CD3FBEA28}"/>
+    <hyperlink ref="D11" r:id="rId16" xr:uid="{E770D1DF-AF4F-449B-911C-30DDD9BC0C0F}"/>
+    <hyperlink ref="C12" r:id="rId17" xr:uid="{3212326D-E6FF-4642-9683-678BF2DB59FA}"/>
+    <hyperlink ref="D12" r:id="rId18" xr:uid="{F26EAB66-8240-4F09-B5E5-3B4691C5D573}"/>
+    <hyperlink ref="C14" r:id="rId19" xr:uid="{B8DB1AB1-6124-4F2C-86CE-1D7B3FEE755A}"/>
+    <hyperlink ref="D14" r:id="rId20" xr:uid="{72ADA9FD-80CF-4F3E-BCD4-00B8734AA90B}"/>
+    <hyperlink ref="C15" r:id="rId21" xr:uid="{AD5BC05C-0E99-476D-9E08-3FC6C58036CF}"/>
+    <hyperlink ref="C16" r:id="rId22" xr:uid="{38212349-115A-4522-8C12-C1A117817A90}"/>
+    <hyperlink ref="D16" r:id="rId23" xr:uid="{E73B8E25-1F21-481A-83A8-26E1B0FFFCC5}"/>
+    <hyperlink ref="C17" r:id="rId24" xr:uid="{61D002B1-AB2A-46D5-883C-EEDF2010E791}"/>
+    <hyperlink ref="D17" r:id="rId25" xr:uid="{37A3C20D-9397-4194-AC57-948A11D740D2}"/>
+    <hyperlink ref="C18" r:id="rId26" xr:uid="{68AD6CC3-BED7-4BC0-8BAA-5DDD0217D5FD}"/>
+    <hyperlink ref="D18" r:id="rId27" xr:uid="{E89ADEAC-682D-4634-A4A7-2E122F391F5C}"/>
+    <hyperlink ref="C20" r:id="rId28" xr:uid="{01FA72C7-AA14-4DF3-AF11-C4702A10DE29}"/>
+    <hyperlink ref="D20" r:id="rId29" xr:uid="{F9D8791B-B359-4FA8-8595-FCB61F092FB9}"/>
+    <hyperlink ref="C21" r:id="rId30" xr:uid="{8AE6915F-3008-4E1C-8E86-0BA8E01C186D}"/>
+    <hyperlink ref="C22" r:id="rId31" xr:uid="{473E68E9-494C-49A8-8A08-FE403C5F6A3B}"/>
+    <hyperlink ref="D22" r:id="rId32" xr:uid="{B1CCD152-E08B-4E70-82A9-E177D6AB91A5}"/>
+    <hyperlink ref="C23" r:id="rId33" xr:uid="{F42A88C9-57F9-4DAD-8A6C-0BC23D6896E4}"/>
+    <hyperlink ref="D23" r:id="rId34" xr:uid="{B3EC3F43-B8FD-4B80-A6D5-FC32933D3907}"/>
+    <hyperlink ref="C24" r:id="rId35" xr:uid="{F21D5FB1-DF2C-4212-8B12-77AEF17E53D9}"/>
+    <hyperlink ref="D24" r:id="rId36" xr:uid="{095BD463-1F60-4968-92E5-7C7D8F491652}"/>
+    <hyperlink ref="C26" r:id="rId37" xr:uid="{7EDB41A5-422D-414F-B35D-F4CA3FE11C9A}"/>
+    <hyperlink ref="D26" r:id="rId38" xr:uid="{44214C78-31CA-4F0B-8A93-5F54F6BB594B}"/>
+    <hyperlink ref="C27" r:id="rId39" xr:uid="{CF89CFAB-AF6C-4752-994C-D8E6804432CE}"/>
+    <hyperlink ref="C28" r:id="rId40" xr:uid="{449C834F-8F17-4714-8677-931614096F13}"/>
+    <hyperlink ref="D28" r:id="rId41" xr:uid="{37804152-DD61-4CF8-853F-E19A0F110539}"/>
+    <hyperlink ref="C29" r:id="rId42" xr:uid="{23B2B2F2-0D76-46AA-8484-919F90F1FAC6}"/>
+    <hyperlink ref="D29" r:id="rId43" xr:uid="{A973424D-A004-4450-8ABE-61A0BC065460}"/>
+    <hyperlink ref="C30" r:id="rId44" xr:uid="{B6D53BCC-B1AB-4138-A034-5140790C430D}"/>
+    <hyperlink ref="D30" r:id="rId45" xr:uid="{A2CFE42E-4608-4F20-BFE7-6FF4CE18B271}"/>
+    <hyperlink ref="C32" r:id="rId46" xr:uid="{DF244B05-034F-4EAC-9922-59825B819C94}"/>
+    <hyperlink ref="D32" r:id="rId47" xr:uid="{DD7E4CB1-1805-439F-BDA5-6FBF1451CF2A}"/>
+    <hyperlink ref="C33" r:id="rId48" xr:uid="{7A511D43-FEEE-4851-AC27-857624165A27}"/>
+    <hyperlink ref="C34" r:id="rId49" xr:uid="{5A594D62-6B93-4464-9C61-7BA21EF9725D}"/>
+    <hyperlink ref="D34" r:id="rId50" xr:uid="{66C0C303-3259-4583-BF51-5E4F2DB99E15}"/>
+    <hyperlink ref="C35" r:id="rId51" xr:uid="{C338450E-71D6-41EA-8EF2-1702FDC3C4FF}"/>
+    <hyperlink ref="D35" r:id="rId52" xr:uid="{B810E587-A9A6-4E98-B907-F6D22F83F86A}"/>
+    <hyperlink ref="C36" r:id="rId53" xr:uid="{10B62228-ECDE-4A4A-BAF0-9AB9A0A3E4E5}"/>
+    <hyperlink ref="D36" r:id="rId54" xr:uid="{B602C956-EF43-4B1A-BD8F-411D656C9FA0}"/>
+    <hyperlink ref="C38" r:id="rId55" xr:uid="{94BB3138-E0A2-47BA-9362-1935EB9E4C60}"/>
+    <hyperlink ref="D38" r:id="rId56" xr:uid="{E10E70AB-B881-4C5C-A542-3A1A53A7E6E7}"/>
+    <hyperlink ref="C39" r:id="rId57" xr:uid="{8F89A685-EE13-4DA3-B826-1AC663C9B67D}"/>
+    <hyperlink ref="C40" r:id="rId58" xr:uid="{752DD056-8F65-40AC-BA5C-5723409E8524}"/>
+    <hyperlink ref="D40" r:id="rId59" xr:uid="{EFAC0A01-59B2-41C3-B251-91AFF67693F8}"/>
+    <hyperlink ref="C41" r:id="rId60" xr:uid="{57D1E54A-12DE-4C43-BEB9-BE98DA6D9DAF}"/>
+    <hyperlink ref="D41" r:id="rId61" xr:uid="{E918B0EE-890C-40C3-AA75-0762602A4F58}"/>
+    <hyperlink ref="C42" r:id="rId62" xr:uid="{5D6FD9EC-F561-4EEB-900A-D006162B5BDE}"/>
+    <hyperlink ref="D42" r:id="rId63" xr:uid="{46673A09-9081-4542-B983-16F689CBB82F}"/>
+    <hyperlink ref="C44" r:id="rId64" xr:uid="{1266DD44-600B-4174-90C0-91829C6C70BF}"/>
+    <hyperlink ref="D44" r:id="rId65" xr:uid="{8BC27FA8-E815-445D-9BB3-E0719A3FAE95}"/>
+    <hyperlink ref="C45" r:id="rId66" xr:uid="{26660AD1-6DD4-43ED-BA63-E04335BF22B8}"/>
+    <hyperlink ref="C46" r:id="rId67" xr:uid="{AEC75F06-DE4C-4E0A-A5B5-1043EAE59CC7}"/>
+    <hyperlink ref="D46" r:id="rId68" xr:uid="{36B102BC-A965-4C6C-A0F7-89A04F0259DB}"/>
+    <hyperlink ref="C47" r:id="rId69" xr:uid="{EE9E3128-98DF-4FCB-85F6-AFCBAB2743FE}"/>
+    <hyperlink ref="D47" r:id="rId70" xr:uid="{8F2FAB72-D5BB-40EA-875F-A0004C4E6148}"/>
+    <hyperlink ref="C48" r:id="rId71" xr:uid="{E5EF0D73-02A2-4B93-B548-F977820F13A2}"/>
+    <hyperlink ref="D48" r:id="rId72" xr:uid="{5992FE4F-A9B9-4B76-9192-C53789FC9C89}"/>
+    <hyperlink ref="C50" r:id="rId73" xr:uid="{01B83F59-8110-46BC-B6A0-17DDCD7B11FD}"/>
+    <hyperlink ref="D50" r:id="rId74" xr:uid="{FAF77B50-DD88-4D4D-9176-A3E46298D0D5}"/>
+    <hyperlink ref="C51" r:id="rId75" xr:uid="{3A2590A5-BD39-462C-ADED-DB3B3ECA325B}"/>
+    <hyperlink ref="C52" r:id="rId76" xr:uid="{6E43A6C0-2149-43A5-974C-C787FA530BB5}"/>
+    <hyperlink ref="D52" r:id="rId77" xr:uid="{F46895B5-B063-40F8-BBF4-943A6E740A8C}"/>
+    <hyperlink ref="C53" r:id="rId78" xr:uid="{D94CDBA3-D045-469F-A159-5D3DD2A8BD11}"/>
+    <hyperlink ref="D53" r:id="rId79" xr:uid="{165B8B99-EEB6-4FE3-9A22-BE1BA0CC2643}"/>
+    <hyperlink ref="C54" r:id="rId80" xr:uid="{56B95359-5F71-4609-94A0-B471A1663285}"/>
+    <hyperlink ref="D54" r:id="rId81" xr:uid="{414CF005-53F4-4436-A298-EADE234CAC2E}"/>
+    <hyperlink ref="C56" r:id="rId82" xr:uid="{A55EFFE7-6A35-496B-95B6-B4420C241B42}"/>
+    <hyperlink ref="D56" r:id="rId83" xr:uid="{AA2596BE-29C6-4A19-8021-762D285FC68B}"/>
+    <hyperlink ref="C57" r:id="rId84" xr:uid="{032107F6-B5E3-4E46-B35E-8EDF455B06AB}"/>
+    <hyperlink ref="C58" r:id="rId85" xr:uid="{78225ABB-C75C-439B-86E5-2C22F0B13704}"/>
+    <hyperlink ref="D58" r:id="rId86" xr:uid="{5CE52EEE-B99C-4255-BE7D-6599532723D6}"/>
+    <hyperlink ref="C59" r:id="rId87" xr:uid="{C6B43460-A4F2-4024-B0B7-B286FB7C5B34}"/>
+    <hyperlink ref="D59" r:id="rId88" xr:uid="{63E48C23-3F67-46D7-AA74-2DE2CDF27304}"/>
+    <hyperlink ref="C60" r:id="rId89" xr:uid="{DF222F46-EFB6-4AEB-AF07-258D2C741673}"/>
+    <hyperlink ref="D60" r:id="rId90" xr:uid="{FBA82721-E595-4CFC-B3A9-A80034F723C9}"/>
+    <hyperlink ref="C61" r:id="rId91" xr:uid="{F924584D-1A8F-4DA6-9A45-848B73ECFBA8}"/>
+    <hyperlink ref="D61" r:id="rId92" xr:uid="{8561D2B9-98D8-4E6F-BD1E-92872995F715}"/>
+    <hyperlink ref="C7" r:id="rId93" xr:uid="{2E6522DE-A3F9-42ED-BABB-2581588A3DAA}"/>
+    <hyperlink ref="C13" r:id="rId94" xr:uid="{3B47C702-0210-4C0E-826A-9A17366B1A15}"/>
+    <hyperlink ref="C19" r:id="rId95" xr:uid="{2473300B-1290-4E1D-BFA1-649D29072E21}"/>
+    <hyperlink ref="C25" r:id="rId96" xr:uid="{B495A9B9-C2EC-4704-85AE-70BDA0DC1449}"/>
+    <hyperlink ref="C31" r:id="rId97" xr:uid="{0C469C36-C1B2-4C5E-A275-B5E4504C5833}"/>
+    <hyperlink ref="C37" r:id="rId98" xr:uid="{AD05BAB5-365B-4B44-92D7-C92B78C21C2C}"/>
+    <hyperlink ref="C43" r:id="rId99" xr:uid="{71F7ACB8-4A63-4B61-9CDC-E5814689D197}"/>
+    <hyperlink ref="C49" r:id="rId100" xr:uid="{46E37E2E-0E4E-4B8E-AD65-510425BE9DDB}"/>
+    <hyperlink ref="C55" r:id="rId101" xr:uid="{B4A1E541-089F-424B-8C6F-9089B7AAAF2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestDataSheet/EasyAppLoginCredentials.xlsx
+++ b/TestDataSheet/EasyAppLoginCredentials.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Swarup_Java_practice\EasyAppAutomation\TestDataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA54D02-FDF3-4A11-A853-1A99E2AAEED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CE56F4-49FB-4286-A94E-BA1601A3FCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EarnAppTestCases" sheetId="5" r:id="rId1"/>
     <sheet name="Credentials" sheetId="6" r:id="rId2"/>
+    <sheet name="RandomUsers" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="36">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -43,18 +44,12 @@
     <t>raviking89</t>
   </si>
   <si>
-    <t>iamsrk01@outlook.com</t>
-  </si>
-  <si>
     <t>Swar@tcs03</t>
   </si>
   <si>
     <t>automationsavi@outlook.com</t>
   </si>
   <si>
-    <t>99271FFAZ001SV</t>
-  </si>
-  <si>
     <t>EasyAppNews</t>
   </si>
   <si>
@@ -89,13 +84,64 @@
   </si>
   <si>
     <t>GWElcome123#</t>
+  </si>
+  <si>
+    <t>Jyoti.john@outlook.com</t>
+  </si>
+  <si>
+    <t>parthking05@outlook.com</t>
+  </si>
+  <si>
+    <t>parthp05</t>
+  </si>
+  <si>
+    <t>deepakp2209@outlook.com</t>
+  </si>
+  <si>
+    <t>deepakp22</t>
+  </si>
+  <si>
+    <t>sonalip1907@outlook.com</t>
+  </si>
+  <si>
+    <t>sonalip19</t>
+  </si>
+  <si>
+    <t>bana.john@outlook.com</t>
+  </si>
+  <si>
+    <t>karanrathod01@outlook.com</t>
+  </si>
+  <si>
+    <t>karan001</t>
+  </si>
+  <si>
+    <t>kiranrathod02@outlook.com</t>
+  </si>
+  <si>
+    <t>kiran001</t>
+  </si>
+  <si>
+    <t>chaitalikmar@outlook.com</t>
+  </si>
+  <si>
+    <t>justchill01</t>
+  </si>
+  <si>
+    <t>96CX21FU6</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9B181FFAZ0025K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +162,12 @@
       <color rgb="FF2A00FF"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -460,7 +512,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -470,10 +522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755FF4AF-10FE-4467-A3B1-EA0B0D38EE5B}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,639 +538,1898 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C59" r:id="rId1" xr:uid="{E73D4330-07BD-45EE-9C98-8256FE0F1CCF}"/>
+    <hyperlink ref="C60" r:id="rId2" xr:uid="{41042336-FB5F-452A-B100-8F8DF126C1A3}"/>
+    <hyperlink ref="D60" r:id="rId3" xr:uid="{B1495BB1-548C-4C86-9416-A66A3812FCBC}"/>
+    <hyperlink ref="C61" r:id="rId4" xr:uid="{F8F830B7-3D7E-4BD3-A10F-A9FDB25BAEA1}"/>
+    <hyperlink ref="D61" r:id="rId5" xr:uid="{53329961-6CEB-4692-8D88-5B721C638C15}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{C695158E-15B1-4CAA-A407-7460ABD9C1A2}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{C6D1B154-44CD-40D9-8B06-FBDF3E073421}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{F83DABA0-D882-4AA2-8710-DB6C50190F63}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{FA09757E-AFA0-48AF-A315-18F3BE72BB6A}"/>
+    <hyperlink ref="D7" r:id="rId10" xr:uid="{9F4ED35B-568E-4133-98FF-7CFFF3EAD30D}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{CA58C26B-62B9-428E-8826-9ABA0BF8926F}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{89835989-2F58-43F2-A5F7-0E8881681875}"/>
+    <hyperlink ref="D12" r:id="rId13" xr:uid="{FBC94698-8D46-4829-B07E-D5481412567F}"/>
+    <hyperlink ref="C13" r:id="rId14" xr:uid="{E211355F-AC4B-4200-B58F-48D6CC5049BB}"/>
+    <hyperlink ref="D13" r:id="rId15" xr:uid="{97096D32-A215-4C8C-9229-CA1E75D50984}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{0D5CE414-4FDD-4E01-A57F-2E167BA073B2}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{75ED77FC-2024-417A-BE7C-8512B35D5D30}"/>
+    <hyperlink ref="D18" r:id="rId18" xr:uid="{745C18D6-0A55-4E06-91BF-1526E2387A37}"/>
+    <hyperlink ref="C19" r:id="rId19" xr:uid="{31E99A49-3FC8-4BC3-9951-707E36D1BA78}"/>
+    <hyperlink ref="D19" r:id="rId20" xr:uid="{5BB8A84D-0791-4F34-8B61-EC930159880B}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{047928FA-5336-4B25-A278-215B41FD70B7}"/>
+    <hyperlink ref="D22" r:id="rId22" xr:uid="{3DC739F7-8A9E-4A3A-8823-45D73B729E54}"/>
+    <hyperlink ref="C26" r:id="rId23" xr:uid="{BA4E497B-DC76-41D0-BAB6-ABE24B52F127}"/>
+    <hyperlink ref="C27" r:id="rId24" xr:uid="{7704F933-A931-4F66-B83C-EF631B6300E0}"/>
+    <hyperlink ref="D27" r:id="rId25" xr:uid="{23B1A02E-0D61-4EBB-9625-7C22C13235D3}"/>
+    <hyperlink ref="C28" r:id="rId26" xr:uid="{2AF11B28-6900-4DB2-8CB6-32A17F13883A}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{7B71AD7C-B295-4047-BAEB-A785054B7EF1}"/>
+    <hyperlink ref="C21" r:id="rId28" xr:uid="{603016C3-6A75-4B7F-A84C-0C13FF2ABC38}"/>
+    <hyperlink ref="C20" r:id="rId29" xr:uid="{E029145A-B31B-45C4-8531-38CC1B6AD5A3}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{AE0589E2-78D1-45D6-8475-1991A45FD127}"/>
+    <hyperlink ref="D31" r:id="rId31" xr:uid="{ABCD5E3A-BD70-4925-AB30-1B569562225A}"/>
+    <hyperlink ref="C35" r:id="rId32" xr:uid="{A3F56C04-CCA6-4449-91C9-C7902537B0C7}"/>
+    <hyperlink ref="C36" r:id="rId33" xr:uid="{ECBCBF1B-D9A6-4FE7-A286-577FBDBF81E6}"/>
+    <hyperlink ref="D36" r:id="rId34" xr:uid="{8673FB6C-8562-4212-89FF-014E99214DD1}"/>
+    <hyperlink ref="C37" r:id="rId35" xr:uid="{E4903554-DA11-4FDE-B9C5-66AA28AF4E8E}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{E9C7125D-9690-4FAC-885B-2DE8955ED060}"/>
+    <hyperlink ref="C30" r:id="rId37" xr:uid="{D93F8A26-715A-4BC0-915D-DCBD0B607034}"/>
+    <hyperlink ref="C29" r:id="rId38" xr:uid="{38867E44-B9BA-49A9-AA0E-C1CC3E123584}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{1149EA2E-CE96-4534-B5C4-1C9FA16D38B5}"/>
+    <hyperlink ref="D40" r:id="rId40" xr:uid="{8C360E3B-D9A7-4737-A9C4-D9266FCDDFAC}"/>
+    <hyperlink ref="C44" r:id="rId41" xr:uid="{79857B74-9EF4-4C77-A022-9562C2198E2F}"/>
+    <hyperlink ref="C45" r:id="rId42" xr:uid="{2CFA232B-3951-48D1-A0B1-DE1E7F6B3D3F}"/>
+    <hyperlink ref="D45" r:id="rId43" xr:uid="{9A16C105-C9CA-4BEF-8CA2-2EC0DD017A37}"/>
+    <hyperlink ref="C46" r:id="rId44" xr:uid="{A5F49058-F082-4D9A-BF48-C93550FB9B4F}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{3FE9AEE7-C2A7-48E9-B90F-D355AC814864}"/>
+    <hyperlink ref="C39" r:id="rId46" xr:uid="{C0A97266-1B43-4614-B92A-96AFAEC67CD4}"/>
+    <hyperlink ref="C38" r:id="rId47" xr:uid="{B1E1E0C6-115F-4D04-8E0C-4150389EE94B}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{BDC3227B-45F4-4F27-9189-28070BFD07FB}"/>
+    <hyperlink ref="D49" r:id="rId49" xr:uid="{3349A5D0-62A9-4CD7-A4FB-19138CD58DB9}"/>
+    <hyperlink ref="C53" r:id="rId50" xr:uid="{30EAE8F8-4DAB-4292-A1CD-6C36390852A2}"/>
+    <hyperlink ref="C54" r:id="rId51" xr:uid="{2295A67E-1698-4775-A157-1631264EAC11}"/>
+    <hyperlink ref="D54" r:id="rId52" xr:uid="{32869B39-1235-431C-B583-B4052356D5AC}"/>
+    <hyperlink ref="C55" r:id="rId53" xr:uid="{470C54B7-C39D-416D-9202-144B542E61D8}"/>
+    <hyperlink ref="D55" r:id="rId54" xr:uid="{686EDBFF-D21C-43D1-9F6E-32651DA715FA}"/>
+    <hyperlink ref="C48" r:id="rId55" xr:uid="{3C29A8F7-6FBE-4196-B9B8-4547B2205E86}"/>
+    <hyperlink ref="C47" r:id="rId56" xr:uid="{348983E3-972C-4CF2-AD81-64F75A60C7E2}"/>
+    <hyperlink ref="D2" r:id="rId57" display="Subupassword@123" xr:uid="{6F6C32F9-A886-4FB9-9554-4BC8CBB42D9C}"/>
+    <hyperlink ref="C2" r:id="rId58" xr:uid="{8596A6DC-E4B1-413A-AFA3-580222231912}"/>
+    <hyperlink ref="C3" r:id="rId59" xr:uid="{EA2ACCCB-271A-4E8E-BB9A-B9E642C36C38}"/>
+    <hyperlink ref="C4" r:id="rId60" xr:uid="{85D0AF2A-888D-4066-B039-96C25F62A3B6}"/>
+    <hyperlink ref="D8" r:id="rId61" display="Subupassword@123" xr:uid="{DA4C34EF-0C0E-40A1-A84B-028C4B3F9B6E}"/>
+    <hyperlink ref="C8" r:id="rId62" xr:uid="{24EF3534-C933-4170-8554-94747B498F90}"/>
+    <hyperlink ref="C9" r:id="rId63" xr:uid="{5708CCB9-849F-4C2F-8601-11568ED78F99}"/>
+    <hyperlink ref="C10" r:id="rId64" xr:uid="{5787F0BC-B38D-4531-8ABD-4048E14F0E68}"/>
+    <hyperlink ref="D14" r:id="rId65" display="Subupassword@123" xr:uid="{CD945FF3-EEB5-4CD4-B859-8D861090061D}"/>
+    <hyperlink ref="C14" r:id="rId66" xr:uid="{52466C7E-8196-4DD9-B4F9-3C766462779E}"/>
+    <hyperlink ref="C15" r:id="rId67" xr:uid="{8FE9B225-91A5-4420-B0D4-504CD28AE3CF}"/>
+    <hyperlink ref="C16" r:id="rId68" xr:uid="{E160F389-75E5-49D6-87BF-F45F89516428}"/>
+    <hyperlink ref="D23" r:id="rId69" display="Subupassword@123" xr:uid="{BAA4BAF0-A453-46FB-8409-716149CD593D}"/>
+    <hyperlink ref="C23" r:id="rId70" xr:uid="{94747018-E044-44B4-AEDC-CFFA8A21FCAB}"/>
+    <hyperlink ref="C24" r:id="rId71" xr:uid="{1B9CC9E3-5167-4BA3-843A-EDBFD886BFA0}"/>
+    <hyperlink ref="C25" r:id="rId72" xr:uid="{34664483-C0E2-4ACF-9FC8-C94BC6F4CE12}"/>
+    <hyperlink ref="D32" r:id="rId73" display="Subupassword@123" xr:uid="{7CAE8E2C-CC81-44AF-918F-2B2C16E609C9}"/>
+    <hyperlink ref="C32" r:id="rId74" xr:uid="{0CF81164-26F5-4462-8D6A-4674270770B9}"/>
+    <hyperlink ref="C33" r:id="rId75" xr:uid="{2033BACF-0B31-4D46-A04A-E4DE468215F0}"/>
+    <hyperlink ref="C34" r:id="rId76" xr:uid="{5D76A0A7-09A1-4256-8B28-66766E8A0A02}"/>
+    <hyperlink ref="D41" r:id="rId77" display="Subupassword@123" xr:uid="{CC242844-5DED-461C-8089-9222083E6FD6}"/>
+    <hyperlink ref="C41" r:id="rId78" xr:uid="{6E6C1730-3F5B-4364-8688-F347A7093912}"/>
+    <hyperlink ref="C42" r:id="rId79" xr:uid="{F2D7BEB9-3B57-4EE4-AAE0-A76A35D13160}"/>
+    <hyperlink ref="C43" r:id="rId80" xr:uid="{97789BA6-0B82-489B-A1CF-59AFE599DA48}"/>
+    <hyperlink ref="D50" r:id="rId81" display="Subupassword@123" xr:uid="{032A94F3-8AD4-4E3B-A0E3-5875C8D19954}"/>
+    <hyperlink ref="C50" r:id="rId82" xr:uid="{5962404B-A597-41FF-B87F-4D665E95050A}"/>
+    <hyperlink ref="C51" r:id="rId83" xr:uid="{6227AC28-67A4-47C7-8AFA-CB46D97CAADC}"/>
+    <hyperlink ref="C52" r:id="rId84" xr:uid="{33A32B4F-A316-405E-829E-C66CC2B0247B}"/>
+    <hyperlink ref="D56" r:id="rId85" display="Subupassword@123" xr:uid="{F4AE51CE-0F84-4964-B5A3-08E002FE40B2}"/>
+    <hyperlink ref="C56" r:id="rId86" xr:uid="{92F0A2B5-622C-4093-B2E5-968E93A3E9C6}"/>
+    <hyperlink ref="C57" r:id="rId87" xr:uid="{A741C7E1-54CB-4A06-B846-62BE2554A6E6}"/>
+    <hyperlink ref="C58" r:id="rId88" xr:uid="{EAB0F015-C6D2-48E6-83C8-0B9B5A2788F8}"/>
+    <hyperlink ref="D62" r:id="rId89" display="Subupassword@123" xr:uid="{970E80F5-FB4B-4853-A2E1-3AE60C15C102}"/>
+    <hyperlink ref="C62" r:id="rId90" xr:uid="{7E84C5EC-D1D2-4B43-B270-6B4320F8121B}"/>
+    <hyperlink ref="C63" r:id="rId91" xr:uid="{1909EF87-FCD9-4D56-9CC7-2972FFB4D2AC}"/>
+    <hyperlink ref="C64" r:id="rId92" xr:uid="{4B0785E1-B1ED-4559-92B6-E0BD6A80DA4C}"/>
+    <hyperlink ref="C65" r:id="rId93" xr:uid="{E04A0E08-5A02-4BD5-BC9D-996E33A66FC3}"/>
+    <hyperlink ref="C66" r:id="rId94" xr:uid="{239102D1-CB43-478E-A67A-37391310D919}"/>
+    <hyperlink ref="D66" r:id="rId95" xr:uid="{6FB2104B-842A-49D3-95EA-5C572A959126}"/>
+    <hyperlink ref="C67" r:id="rId96" xr:uid="{344766E5-B913-4EB2-9812-EAC825D22390}"/>
+    <hyperlink ref="D67" r:id="rId97" xr:uid="{F3644CBB-05B9-449D-AF3F-3B6E725D3D8E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A62536-5729-4491-8A91-099493C39468}">
+  <dimension ref="A1:E71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>17</v>
@@ -1127,503 +2438,633 @@
         <v>18</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>11</v>
+      <c r="D66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{8CCEFF35-EDDB-428B-9C16-1BCA944828E4}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{20C18784-A657-44CD-BD60-A632D4D8D446}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{329FA466-B6AA-4C6E-AB98-C2A2375CC92D}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{045F31A8-8CC2-4111-A270-4987EB8E5666}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{62692CCA-0AEF-45DE-B5B2-34EE9B6AC4C8}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{CF9278C1-55E8-4DB9-AAC0-B2F0CEC6F2EB}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{F29B9117-00E0-4E8F-BC88-DF87900BEA65}"/>
-    <hyperlink ref="C6" r:id="rId8" xr:uid="{B731B0DC-253F-44A0-A2A7-8D330EBAFC69}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{AB95B095-FF83-4A04-9E6F-EB00166BDDAF}"/>
-    <hyperlink ref="C8" r:id="rId10" xr:uid="{3EB4E6A0-66B6-4656-A152-20E0A4D52E0A}"/>
-    <hyperlink ref="D8" r:id="rId11" xr:uid="{C50ACA3C-23F3-4BF8-832F-C7B8D80A73EE}"/>
-    <hyperlink ref="C9" r:id="rId12" xr:uid="{8D6985E3-8520-4700-966D-4A66CA630F40}"/>
-    <hyperlink ref="C10" r:id="rId13" xr:uid="{009BE43C-BBE5-4A06-A3CD-DB154A86C5BD}"/>
-    <hyperlink ref="D10" r:id="rId14" xr:uid="{28BA843E-C89D-4D94-A108-E9213A0E2177}"/>
-    <hyperlink ref="C11" r:id="rId15" xr:uid="{20B2C933-5B06-40FF-8A2D-256CD3FBEA28}"/>
-    <hyperlink ref="D11" r:id="rId16" xr:uid="{E770D1DF-AF4F-449B-911C-30DDD9BC0C0F}"/>
-    <hyperlink ref="C12" r:id="rId17" xr:uid="{3212326D-E6FF-4642-9683-678BF2DB59FA}"/>
-    <hyperlink ref="D12" r:id="rId18" xr:uid="{F26EAB66-8240-4F09-B5E5-3B4691C5D573}"/>
-    <hyperlink ref="C14" r:id="rId19" xr:uid="{B8DB1AB1-6124-4F2C-86CE-1D7B3FEE755A}"/>
-    <hyperlink ref="D14" r:id="rId20" xr:uid="{72ADA9FD-80CF-4F3E-BCD4-00B8734AA90B}"/>
-    <hyperlink ref="C15" r:id="rId21" xr:uid="{AD5BC05C-0E99-476D-9E08-3FC6C58036CF}"/>
-    <hyperlink ref="C16" r:id="rId22" xr:uid="{38212349-115A-4522-8C12-C1A117817A90}"/>
-    <hyperlink ref="D16" r:id="rId23" xr:uid="{E73B8E25-1F21-481A-83A8-26E1B0FFFCC5}"/>
-    <hyperlink ref="C17" r:id="rId24" xr:uid="{61D002B1-AB2A-46D5-883C-EEDF2010E791}"/>
-    <hyperlink ref="D17" r:id="rId25" xr:uid="{37A3C20D-9397-4194-AC57-948A11D740D2}"/>
-    <hyperlink ref="C18" r:id="rId26" xr:uid="{68AD6CC3-BED7-4BC0-8BAA-5DDD0217D5FD}"/>
-    <hyperlink ref="D18" r:id="rId27" xr:uid="{E89ADEAC-682D-4634-A4A7-2E122F391F5C}"/>
-    <hyperlink ref="C20" r:id="rId28" xr:uid="{01FA72C7-AA14-4DF3-AF11-C4702A10DE29}"/>
-    <hyperlink ref="D20" r:id="rId29" xr:uid="{F9D8791B-B359-4FA8-8595-FCB61F092FB9}"/>
-    <hyperlink ref="C21" r:id="rId30" xr:uid="{8AE6915F-3008-4E1C-8E86-0BA8E01C186D}"/>
-    <hyperlink ref="C22" r:id="rId31" xr:uid="{473E68E9-494C-49A8-8A08-FE403C5F6A3B}"/>
-    <hyperlink ref="D22" r:id="rId32" xr:uid="{B1CCD152-E08B-4E70-82A9-E177D6AB91A5}"/>
-    <hyperlink ref="C23" r:id="rId33" xr:uid="{F42A88C9-57F9-4DAD-8A6C-0BC23D6896E4}"/>
-    <hyperlink ref="D23" r:id="rId34" xr:uid="{B3EC3F43-B8FD-4B80-A6D5-FC32933D3907}"/>
-    <hyperlink ref="C24" r:id="rId35" xr:uid="{F21D5FB1-DF2C-4212-8B12-77AEF17E53D9}"/>
-    <hyperlink ref="D24" r:id="rId36" xr:uid="{095BD463-1F60-4968-92E5-7C7D8F491652}"/>
-    <hyperlink ref="C26" r:id="rId37" xr:uid="{7EDB41A5-422D-414F-B35D-F4CA3FE11C9A}"/>
-    <hyperlink ref="D26" r:id="rId38" xr:uid="{44214C78-31CA-4F0B-8A93-5F54F6BB594B}"/>
-    <hyperlink ref="C27" r:id="rId39" xr:uid="{CF89CFAB-AF6C-4752-994C-D8E6804432CE}"/>
-    <hyperlink ref="C28" r:id="rId40" xr:uid="{449C834F-8F17-4714-8677-931614096F13}"/>
-    <hyperlink ref="D28" r:id="rId41" xr:uid="{37804152-DD61-4CF8-853F-E19A0F110539}"/>
-    <hyperlink ref="C29" r:id="rId42" xr:uid="{23B2B2F2-0D76-46AA-8484-919F90F1FAC6}"/>
-    <hyperlink ref="D29" r:id="rId43" xr:uid="{A973424D-A004-4450-8ABE-61A0BC065460}"/>
-    <hyperlink ref="C30" r:id="rId44" xr:uid="{B6D53BCC-B1AB-4138-A034-5140790C430D}"/>
-    <hyperlink ref="D30" r:id="rId45" xr:uid="{A2CFE42E-4608-4F20-BFE7-6FF4CE18B271}"/>
-    <hyperlink ref="C32" r:id="rId46" xr:uid="{DF244B05-034F-4EAC-9922-59825B819C94}"/>
-    <hyperlink ref="D32" r:id="rId47" xr:uid="{DD7E4CB1-1805-439F-BDA5-6FBF1451CF2A}"/>
-    <hyperlink ref="C33" r:id="rId48" xr:uid="{7A511D43-FEEE-4851-AC27-857624165A27}"/>
-    <hyperlink ref="C34" r:id="rId49" xr:uid="{5A594D62-6B93-4464-9C61-7BA21EF9725D}"/>
-    <hyperlink ref="D34" r:id="rId50" xr:uid="{66C0C303-3259-4583-BF51-5E4F2DB99E15}"/>
-    <hyperlink ref="C35" r:id="rId51" xr:uid="{C338450E-71D6-41EA-8EF2-1702FDC3C4FF}"/>
-    <hyperlink ref="D35" r:id="rId52" xr:uid="{B810E587-A9A6-4E98-B907-F6D22F83F86A}"/>
-    <hyperlink ref="C36" r:id="rId53" xr:uid="{10B62228-ECDE-4A4A-BAF0-9AB9A0A3E4E5}"/>
-    <hyperlink ref="D36" r:id="rId54" xr:uid="{B602C956-EF43-4B1A-BD8F-411D656C9FA0}"/>
-    <hyperlink ref="C38" r:id="rId55" xr:uid="{94BB3138-E0A2-47BA-9362-1935EB9E4C60}"/>
-    <hyperlink ref="D38" r:id="rId56" xr:uid="{E10E70AB-B881-4C5C-A542-3A1A53A7E6E7}"/>
-    <hyperlink ref="C39" r:id="rId57" xr:uid="{8F89A685-EE13-4DA3-B826-1AC663C9B67D}"/>
-    <hyperlink ref="C40" r:id="rId58" xr:uid="{752DD056-8F65-40AC-BA5C-5723409E8524}"/>
-    <hyperlink ref="D40" r:id="rId59" xr:uid="{EFAC0A01-59B2-41C3-B251-91AFF67693F8}"/>
-    <hyperlink ref="C41" r:id="rId60" xr:uid="{57D1E54A-12DE-4C43-BEB9-BE98DA6D9DAF}"/>
-    <hyperlink ref="D41" r:id="rId61" xr:uid="{E918B0EE-890C-40C3-AA75-0762602A4F58}"/>
-    <hyperlink ref="C42" r:id="rId62" xr:uid="{5D6FD9EC-F561-4EEB-900A-D006162B5BDE}"/>
-    <hyperlink ref="D42" r:id="rId63" xr:uid="{46673A09-9081-4542-B983-16F689CBB82F}"/>
-    <hyperlink ref="C44" r:id="rId64" xr:uid="{1266DD44-600B-4174-90C0-91829C6C70BF}"/>
-    <hyperlink ref="D44" r:id="rId65" xr:uid="{8BC27FA8-E815-445D-9BB3-E0719A3FAE95}"/>
-    <hyperlink ref="C45" r:id="rId66" xr:uid="{26660AD1-6DD4-43ED-BA63-E04335BF22B8}"/>
-    <hyperlink ref="C46" r:id="rId67" xr:uid="{AEC75F06-DE4C-4E0A-A5B5-1043EAE59CC7}"/>
-    <hyperlink ref="D46" r:id="rId68" xr:uid="{36B102BC-A965-4C6C-A0F7-89A04F0259DB}"/>
-    <hyperlink ref="C47" r:id="rId69" xr:uid="{EE9E3128-98DF-4FCB-85F6-AFCBAB2743FE}"/>
-    <hyperlink ref="D47" r:id="rId70" xr:uid="{8F2FAB72-D5BB-40EA-875F-A0004C4E6148}"/>
-    <hyperlink ref="C48" r:id="rId71" xr:uid="{E5EF0D73-02A2-4B93-B548-F977820F13A2}"/>
-    <hyperlink ref="D48" r:id="rId72" xr:uid="{5992FE4F-A9B9-4B76-9192-C53789FC9C89}"/>
-    <hyperlink ref="C50" r:id="rId73" xr:uid="{01B83F59-8110-46BC-B6A0-17DDCD7B11FD}"/>
-    <hyperlink ref="D50" r:id="rId74" xr:uid="{FAF77B50-DD88-4D4D-9176-A3E46298D0D5}"/>
-    <hyperlink ref="C51" r:id="rId75" xr:uid="{3A2590A5-BD39-462C-ADED-DB3B3ECA325B}"/>
-    <hyperlink ref="C52" r:id="rId76" xr:uid="{6E43A6C0-2149-43A5-974C-C787FA530BB5}"/>
-    <hyperlink ref="D52" r:id="rId77" xr:uid="{F46895B5-B063-40F8-BBF4-943A6E740A8C}"/>
-    <hyperlink ref="C53" r:id="rId78" xr:uid="{D94CDBA3-D045-469F-A159-5D3DD2A8BD11}"/>
-    <hyperlink ref="D53" r:id="rId79" xr:uid="{165B8B99-EEB6-4FE3-9A22-BE1BA0CC2643}"/>
-    <hyperlink ref="C54" r:id="rId80" xr:uid="{56B95359-5F71-4609-94A0-B471A1663285}"/>
-    <hyperlink ref="D54" r:id="rId81" xr:uid="{414CF005-53F4-4436-A298-EADE234CAC2E}"/>
-    <hyperlink ref="C56" r:id="rId82" xr:uid="{A55EFFE7-6A35-496B-95B6-B4420C241B42}"/>
-    <hyperlink ref="D56" r:id="rId83" xr:uid="{AA2596BE-29C6-4A19-8021-762D285FC68B}"/>
-    <hyperlink ref="C57" r:id="rId84" xr:uid="{032107F6-B5E3-4E46-B35E-8EDF455B06AB}"/>
-    <hyperlink ref="C58" r:id="rId85" xr:uid="{78225ABB-C75C-439B-86E5-2C22F0B13704}"/>
-    <hyperlink ref="D58" r:id="rId86" xr:uid="{5CE52EEE-B99C-4255-BE7D-6599532723D6}"/>
-    <hyperlink ref="C59" r:id="rId87" xr:uid="{C6B43460-A4F2-4024-B0B7-B286FB7C5B34}"/>
-    <hyperlink ref="D59" r:id="rId88" xr:uid="{63E48C23-3F67-46D7-AA74-2DE2CDF27304}"/>
-    <hyperlink ref="C60" r:id="rId89" xr:uid="{DF222F46-EFB6-4AEB-AF07-258D2C741673}"/>
-    <hyperlink ref="D60" r:id="rId90" xr:uid="{FBA82721-E595-4CFC-B3A9-A80034F723C9}"/>
-    <hyperlink ref="C61" r:id="rId91" xr:uid="{F924584D-1A8F-4DA6-9A45-848B73ECFBA8}"/>
-    <hyperlink ref="D61" r:id="rId92" xr:uid="{8561D2B9-98D8-4E6F-BD1E-92872995F715}"/>
-    <hyperlink ref="C7" r:id="rId93" xr:uid="{2E6522DE-A3F9-42ED-BABB-2581588A3DAA}"/>
-    <hyperlink ref="C13" r:id="rId94" xr:uid="{3B47C702-0210-4C0E-826A-9A17366B1A15}"/>
-    <hyperlink ref="C19" r:id="rId95" xr:uid="{2473300B-1290-4E1D-BFA1-649D29072E21}"/>
-    <hyperlink ref="C25" r:id="rId96" xr:uid="{B495A9B9-C2EC-4704-85AE-70BDA0DC1449}"/>
-    <hyperlink ref="C31" r:id="rId97" xr:uid="{0C469C36-C1B2-4C5E-A275-B5E4504C5833}"/>
-    <hyperlink ref="C37" r:id="rId98" xr:uid="{AD05BAB5-365B-4B44-92D7-C92B78C21C2C}"/>
-    <hyperlink ref="C43" r:id="rId99" xr:uid="{71F7ACB8-4A63-4B61-9CDC-E5814689D197}"/>
-    <hyperlink ref="C49" r:id="rId100" xr:uid="{46E37E2E-0E4E-4B8E-AD65-510425BE9DDB}"/>
-    <hyperlink ref="C55" r:id="rId101" xr:uid="{B4A1E541-089F-424B-8C6F-9089B7AAAF2D}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{ECFD3494-058C-4FE8-9024-6CA7872C8449}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{46A6DF2B-8D87-40DA-A4E8-AE703DCD81ED}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{F253F2EC-855D-4277-A709-2E40478C777C}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{1CAA4B14-2FA2-45B5-AB54-C9ACE0A4989F}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{FB7BE8ED-A204-4BB6-969E-B98A33E1E635}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{1194BF06-0E44-402B-B9FB-046562725502}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{7F68EF8B-18A0-426A-8825-88AB2BBE9681}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{5623CC92-28D3-47D7-8ADA-40A7EBC75E3C}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{CC17CD58-AE01-46B0-B57E-78C9A1E57986}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{C08F6EB5-BCB7-4437-BA24-50C9D6948EB5}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{6C1FC0EC-BADC-46FC-8B18-8381CA12C4F5}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{4801855D-7BAC-4B80-B031-C499890A24D5}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{C9286F0F-181F-4B0F-8F76-3930AAF52D39}"/>
+    <hyperlink ref="D18" r:id="rId14" xr:uid="{D3CA31C6-D0D9-436D-B5E5-BFF78BD910D5}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{1BE1F7A7-7B4B-4610-B4E1-FA4D137F6496}"/>
+    <hyperlink ref="C16" r:id="rId16" xr:uid="{A70ED53B-B682-4DFD-BF3B-041E8C7EA60F}"/>
+    <hyperlink ref="C19" r:id="rId17" xr:uid="{6876A1E3-34FD-40FE-9C3A-ABEBD349C246}"/>
+    <hyperlink ref="C22" r:id="rId18" xr:uid="{C35450F3-7746-4AD2-AFD2-AE96267D0184}"/>
+    <hyperlink ref="C25" r:id="rId19" xr:uid="{F8AB5B23-9EAC-4849-B417-548940802384}"/>
+    <hyperlink ref="D25" r:id="rId20" xr:uid="{2B07CC34-E1D1-411C-A2A2-0C4749E185B6}"/>
+    <hyperlink ref="C24" r:id="rId21" xr:uid="{7622A811-9458-4C00-AD48-AE8B19FF3D27}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{9F0EFEDC-0EBB-4424-ADBA-4FBD757275E9}"/>
+    <hyperlink ref="C26" r:id="rId23" xr:uid="{CB83F74F-0345-46A3-A5A8-7AAE05054532}"/>
+    <hyperlink ref="C29" r:id="rId24" xr:uid="{2F626867-AC0D-4804-A258-8385CBEB3B82}"/>
+    <hyperlink ref="C32" r:id="rId25" xr:uid="{19E3D1CC-80D3-4E23-B9F4-336D757E0595}"/>
+    <hyperlink ref="D32" r:id="rId26" xr:uid="{928254DF-BB67-407C-AAD4-34062E95D64B}"/>
+    <hyperlink ref="C31" r:id="rId27" xr:uid="{7300434B-147E-46BE-BFCB-0FC26D08B97F}"/>
+    <hyperlink ref="C30" r:id="rId28" xr:uid="{F3481994-2474-4E8A-A9CB-B61E2467FBBF}"/>
+    <hyperlink ref="C33" r:id="rId29" xr:uid="{43021F7A-EED2-47D5-A7F2-E8D360B8F0BC}"/>
+    <hyperlink ref="C36" r:id="rId30" xr:uid="{04A6AA0F-CF92-4AA0-A3FA-F5119CA21C10}"/>
+    <hyperlink ref="C39" r:id="rId31" xr:uid="{4C1F1695-157E-49B9-AEDC-B855646AAFC5}"/>
+    <hyperlink ref="D39" r:id="rId32" xr:uid="{A8E0C8B5-DA23-4C05-A0A5-76AC3CADE448}"/>
+    <hyperlink ref="C38" r:id="rId33" xr:uid="{4EEDBA4A-BDBB-4739-9BFD-AA6B7640D64D}"/>
+    <hyperlink ref="C37" r:id="rId34" xr:uid="{70743ADC-470F-44F7-B188-79A3D42E440B}"/>
+    <hyperlink ref="C40" r:id="rId35" xr:uid="{911C0E53-9439-4E75-B6F1-6EA16DF771B1}"/>
+    <hyperlink ref="C43" r:id="rId36" xr:uid="{C13F5194-CF34-4FAD-82CA-9F5098B4C4BB}"/>
+    <hyperlink ref="C46" r:id="rId37" xr:uid="{C348D839-DDFE-4B7A-AFB9-A6EDB54468C5}"/>
+    <hyperlink ref="D46" r:id="rId38" xr:uid="{190A8707-DEC0-43B3-B669-15A6B84F40C3}"/>
+    <hyperlink ref="C45" r:id="rId39" xr:uid="{DE62561B-EA8B-4EF5-8FF6-CB608089864F}"/>
+    <hyperlink ref="C44" r:id="rId40" xr:uid="{85939FC9-FDD4-40D1-AB39-4C4564C98B75}"/>
+    <hyperlink ref="C47" r:id="rId41" xr:uid="{27E33D1B-93DE-4908-8B4C-7725AD3130BC}"/>
+    <hyperlink ref="C50" r:id="rId42" xr:uid="{B144E368-90C7-4394-95E1-53384D99DDD5}"/>
+    <hyperlink ref="C53" r:id="rId43" xr:uid="{848E323D-088C-4468-994A-79EBE56A9C4A}"/>
+    <hyperlink ref="D53" r:id="rId44" xr:uid="{BBC695D4-BE4E-4DE7-9B96-D98062E00A08}"/>
+    <hyperlink ref="C52" r:id="rId45" xr:uid="{9F2D654C-82B7-414F-9776-8DF4196C3509}"/>
+    <hyperlink ref="C51" r:id="rId46" xr:uid="{AE32C8CC-6230-4953-9669-E1EBC1B0B312}"/>
+    <hyperlink ref="C54" r:id="rId47" xr:uid="{209B3EC1-0E72-4399-A3FD-AB04B69A0009}"/>
+    <hyperlink ref="C57" r:id="rId48" xr:uid="{898AD030-B277-4130-861F-AB2AD70AE70E}"/>
+    <hyperlink ref="C60" r:id="rId49" xr:uid="{FE7F76E9-8A0E-40DB-A8B1-EA7CEA9E643C}"/>
+    <hyperlink ref="D60" r:id="rId50" xr:uid="{EA2C93DB-FD99-4660-8011-E7C54383C5AF}"/>
+    <hyperlink ref="C59" r:id="rId51" xr:uid="{4C5F94B4-61C9-4B77-A0CF-F3993D55E81E}"/>
+    <hyperlink ref="C58" r:id="rId52" xr:uid="{2A390C8F-3C4A-4087-8DA8-93ECCF98CEE9}"/>
+    <hyperlink ref="C61" r:id="rId53" xr:uid="{CBF40D14-76B6-4077-B3B7-CE40B8B447CE}"/>
+    <hyperlink ref="C64" r:id="rId54" xr:uid="{3990B853-4B65-49C6-BC5D-39697744A89C}"/>
+    <hyperlink ref="C67" r:id="rId55" xr:uid="{004D99ED-CA37-4DE9-A0BE-157A01324563}"/>
+    <hyperlink ref="D67" r:id="rId56" xr:uid="{6D79B20A-83F3-4DF1-8CA4-2A4C3B2BF5B0}"/>
+    <hyperlink ref="C66" r:id="rId57" xr:uid="{26392228-BC4D-469B-8A15-82663A43C3D4}"/>
+    <hyperlink ref="C65" r:id="rId58" xr:uid="{2537C488-B7D2-4BE8-B903-451630D59E28}"/>
+    <hyperlink ref="C68" r:id="rId59" xr:uid="{E0DA9E5C-CCB8-426D-BC29-DA3DCBBC137F}"/>
+    <hyperlink ref="C71" r:id="rId60" xr:uid="{A663DD69-6094-4B91-9FCF-CD34074A68C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
